--- a/RFU values for Giulia modified 2.xlsx
+++ b/RFU values for Giulia modified 2.xlsx
@@ -1,46 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vschastlivaia/Library/CloudStorage/GoogleDrive-ginger.spacetail@gmail.com/My Drive/_Molecular Bionics Group/Scripts and experiments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ibecbarcelona-my.sharepoint.com/personal/vschastlivaia_ibecbarcelona_eu/Documents/Documents/GitHub/lab-data-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46DDE6FF-E13A-9C46-8D62-F274BE4A8A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{46DDE6FF-E13A-9C46-8D62-F274BE4A8A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0FDC6C0-95EE-BF4D-B3D6-E25F8AD108BD}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="500" windowWidth="28040" windowHeight="16400" xr2:uid="{E40437E1-9EE4-BA40-9B8D-F6C602CF8491}"/>
+    <workbookView xWindow="1780" yWindow="760" windowWidth="28040" windowHeight="16400" xr2:uid="{E40437E1-9EE4-BA40-9B8D-F6C602CF8491}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$3:$A$7</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$3:$B$7</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$3:$C$7</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$D$3:$D$7</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$C$2:$C$6</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$3:$B$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$3:$C$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$3:$D$7</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$3:$A$7</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -76,13 +50,13 @@
     <t>Liver</t>
   </si>
   <si>
-    <t>unknown 1</t>
+    <t>readout 1</t>
   </si>
   <si>
-    <t>unknown 2</t>
+    <t>readout 2</t>
   </si>
   <si>
-    <t>unknown 3</t>
+    <t>readout 3</t>
   </si>
 </sst>
 </file>
@@ -224,11 +198,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -576,13 +549,13 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -614,194 +587,194 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>39585</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>41747</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>39776</v>
       </c>
       <c r="E3" s="2">
         <v>38394</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>39978</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>39407</v>
       </c>
       <c r="H3" s="2">
         <v>37513</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <v>37801</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>37047</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>60</v>
       </c>
       <c r="B4" s="2">
         <v>36579</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>35295</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>39343</v>
       </c>
       <c r="E4" s="2">
         <v>28980</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>29200</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>28189</v>
       </c>
       <c r="H4" s="2">
         <v>28393</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1">
         <v>29076</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>29318</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>180</v>
       </c>
       <c r="B5" s="2">
         <v>31008</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>33687</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>32117</v>
       </c>
       <c r="E5" s="2">
         <v>18615</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>18416</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>19153</v>
       </c>
       <c r="H5" s="2">
         <v>18181</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>18674</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>13645</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>360</v>
       </c>
       <c r="B6" s="2">
         <v>21891</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>21953</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>26086</v>
       </c>
       <c r="E6" s="2">
         <v>13513</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>13084</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>11447</v>
       </c>
       <c r="H6" s="2">
         <v>12971</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <v>12290</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>13543</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>1200</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>12789</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>12420</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>13546</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>5029</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>4878</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>5081</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>4347</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>4434</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>4505</v>
       </c>
     </row>
